--- a/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
+++ b/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Expansion" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -73,7 +72,31 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>723506003</t>
@@ -82,13 +105,7 @@
     <t>Resolved</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
+    <t>false</t>
   </si>
   <si>
     <t>55561003</t>
@@ -335,95 +352,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
         <v>19</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
+++ b/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
